--- a/8_데이터베이스 오브젝트 설계.xlsx
+++ b/8_데이터베이스 오브젝트 설계.xlsx
@@ -94,18 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +143,18 @@
   </si>
   <si>
     <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,37 +266,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,7 +582,7 @@
   <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,28 +597,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -626,181 +626,188 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="1">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="1">
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="1">
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K4:L4"/>
@@ -811,17 +818,10 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
